--- a/Svod.xlsx
+++ b/Svod.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Ясли</t>
   </si>
@@ -43,256 +43,16 @@
     <t>Остаток</t>
   </si>
   <si>
-    <t>апельсины</t>
-  </si>
-  <si>
-    <t>ванилин</t>
-  </si>
-  <si>
-    <t>вафли</t>
-  </si>
-  <si>
-    <t>геркулес</t>
-  </si>
-  <si>
-    <t>горбуша свежемороженная б/г</t>
-  </si>
-  <si>
-    <t>горох</t>
-  </si>
-  <si>
-    <t>горошек консервированный</t>
-  </si>
-  <si>
-    <t>груши</t>
-  </si>
-  <si>
-    <t>дрожжи</t>
-  </si>
-  <si>
-    <t>зефир</t>
-  </si>
-  <si>
-    <t>изюм</t>
-  </si>
-  <si>
-    <t>какао</t>
-  </si>
-  <si>
-    <t>капуста</t>
-  </si>
-  <si>
-    <t>картофель</t>
-  </si>
-  <si>
-    <t>кефир</t>
-  </si>
-  <si>
-    <t>кисель</t>
-  </si>
-  <si>
-    <t>компотная смесь (сухофрукты)</t>
-  </si>
-  <si>
-    <t>кофейный напиток</t>
-  </si>
-  <si>
-    <t>крупа гречневая</t>
-  </si>
-  <si>
-    <t>крупа кукурузная</t>
-  </si>
-  <si>
-    <t>крупа манная</t>
-  </si>
-  <si>
-    <t>крупа перловая</t>
-  </si>
-  <si>
-    <t>крупа пшеничная</t>
-  </si>
-  <si>
-    <t>крупа ячневая</t>
-  </si>
-  <si>
-    <t>кукуруза консервированная</t>
-  </si>
-  <si>
-    <t>лавровый лист</t>
-  </si>
-  <si>
-    <t>лимоны</t>
-  </si>
-  <si>
-    <t>лук</t>
-  </si>
-  <si>
-    <t>макаронные изделия</t>
-  </si>
-  <si>
-    <t>масло растительное</t>
-  </si>
-  <si>
-    <t>масло сливочное</t>
-  </si>
-  <si>
-    <t>минтай с/м б/г</t>
-  </si>
-  <si>
-    <t>молоко свежее 2,5%</t>
-  </si>
-  <si>
-    <t>молоко сгущенное</t>
-  </si>
-  <si>
-    <t>молоко сухое</t>
-  </si>
-  <si>
-    <t>морковь</t>
-  </si>
-  <si>
-    <t>мука пшеничная</t>
-  </si>
-  <si>
-    <t>мясо говядина без кости</t>
-  </si>
-  <si>
-    <t>мясо говядина на кости</t>
-  </si>
-  <si>
-    <t>мясо птицы</t>
-  </si>
-  <si>
-    <t>огурцы соленые</t>
-  </si>
-  <si>
-    <t>паста томатная</t>
-  </si>
-  <si>
-    <t>печень говяжья</t>
-  </si>
-  <si>
-    <t>печенье</t>
-  </si>
-  <si>
-    <t>повидло</t>
-  </si>
-  <si>
-    <t>пшено</t>
-  </si>
-  <si>
-    <t>рис</t>
-  </si>
-  <si>
-    <t>ряженка</t>
-  </si>
-  <si>
-    <t>сахар</t>
-  </si>
-  <si>
-    <t>свекла</t>
-  </si>
-  <si>
-    <t>сельдь слабосоленая</t>
-  </si>
-  <si>
-    <t>сметана</t>
-  </si>
-  <si>
-    <t>снежок (кг)</t>
-  </si>
-  <si>
-    <t>сок фруктовый</t>
-  </si>
-  <si>
-    <t>сыр</t>
-  </si>
-  <si>
-    <t>творог</t>
-  </si>
-  <si>
-    <t>тушенка</t>
-  </si>
-  <si>
-    <t>хлеб пшеничный</t>
-  </si>
-  <si>
-    <t>хлеб ржаной</t>
-  </si>
-  <si>
-    <t>чай</t>
-  </si>
-  <si>
-    <t>чернослив</t>
-  </si>
-  <si>
-    <t>шиповник</t>
-  </si>
-  <si>
-    <t>яблоки</t>
-  </si>
-  <si>
-    <t>яйцо</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  09.01.23</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  10.01.23</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  11.01.23</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  12.01.23</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  13.01.23</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  16.01.2023</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  17.01.2023</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  18.01.23</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  19.01.23</t>
-  </si>
-  <si>
-    <t>Расход продуктов  за  20.01.23</t>
-  </si>
-  <si>
-    <t>с\м ягода</t>
-  </si>
-  <si>
-    <t>соль йодированная</t>
-  </si>
-  <si>
-    <t>сушки</t>
-  </si>
-  <si>
-    <t>крахмал</t>
-  </si>
-  <si>
-    <t>лимонная кислота</t>
-  </si>
-  <si>
-    <t>вермешель</t>
-  </si>
-  <si>
     <t>Отвественный:</t>
   </si>
   <si>
     <t>Е.В.Кобзева</t>
   </si>
   <si>
-    <t>икра кабачковая</t>
+    <t xml:space="preserve">Расход продуктов по МДОУ "Детский сад № 63" с  по </t>
   </si>
   <si>
-    <t xml:space="preserve">Расход продуктов по МДОУ "Детский сад № 63" с  по </t>
+    <t>н</t>
   </si>
 </sst>
 </file>
@@ -716,20 +476,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -754,24 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,12 +837,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AC79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="AC36" sqref="AC36"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1094,130 +854,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="10" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="A1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="28"/>
-      <c r="V2" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="31" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="43"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="34"/>
     </row>
     <row r="4" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1284,8 +1024,8 @@
       <c r="Y4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="43"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="34"/>
     </row>
     <row r="5" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1315,13 +1055,11 @@
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
       <c r="Y5" s="22"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="44"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="35"/>
     </row>
     <row r="6" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="11"/>
       <c r="C6" s="15"/>
       <c r="D6" s="13"/>
@@ -1350,9 +1088,7 @@
       <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="12"/>
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
@@ -1381,9 +1117,7 @@
       <c r="AA7" s="25"/>
     </row>
     <row r="8" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="12"/>
       <c r="C8" s="16"/>
       <c r="D8" s="14"/>
@@ -1412,9 +1146,7 @@
       <c r="AA8" s="25"/>
     </row>
     <row r="9" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="12"/>
       <c r="C9" s="16"/>
       <c r="D9" s="14"/>
@@ -1443,9 +1175,7 @@
       <c r="AA9" s="25"/>
     </row>
     <row r="10" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="12"/>
       <c r="C10" s="16"/>
       <c r="D10" s="14"/>
@@ -1473,10 +1203,8 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="25"/>
     </row>
-    <row r="11" spans="1:27" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
+    <row r="11" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
       <c r="B11" s="12"/>
       <c r="C11" s="16"/>
       <c r="D11" s="14"/>
@@ -1505,9 +1233,7 @@
       <c r="AA11" s="25"/>
     </row>
     <row r="12" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="12"/>
       <c r="C12" s="16"/>
       <c r="D12" s="14"/>
@@ -1535,10 +1261,8 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="25"/>
     </row>
-    <row r="13" spans="1:27" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="13" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
       <c r="B13" s="12"/>
       <c r="C13" s="16"/>
       <c r="D13" s="14"/>
@@ -1567,9 +1291,7 @@
       <c r="AA13" s="25"/>
     </row>
     <row r="14" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="12"/>
       <c r="C14" s="16"/>
       <c r="D14" s="14"/>
@@ -1598,9 +1320,7 @@
       <c r="AA14" s="25"/>
     </row>
     <row r="15" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="12"/>
       <c r="C15" s="16"/>
       <c r="D15" s="14"/>
@@ -1629,9 +1349,7 @@
       <c r="AA15" s="25"/>
     </row>
     <row r="16" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="12"/>
       <c r="C16" s="16"/>
       <c r="D16" s="14"/>
@@ -1660,9 +1378,7 @@
       <c r="AA16" s="25"/>
     </row>
     <row r="17" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="12"/>
       <c r="C17" s="16"/>
       <c r="D17" s="14"/>
@@ -1691,9 +1407,7 @@
       <c r="AA17" s="25"/>
     </row>
     <row r="18" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="12"/>
       <c r="C18" s="16"/>
       <c r="D18" s="14"/>
@@ -1722,9 +1436,7 @@
       <c r="AA18" s="25"/>
     </row>
     <row r="19" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="12"/>
       <c r="C19" s="16"/>
       <c r="D19" s="14"/>
@@ -1753,9 +1465,7 @@
       <c r="AA19" s="25"/>
     </row>
     <row r="20" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="12"/>
       <c r="C20" s="16"/>
       <c r="D20" s="14"/>
@@ -1784,9 +1494,7 @@
       <c r="AA20" s="25"/>
     </row>
     <row r="21" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="12"/>
       <c r="C21" s="16"/>
       <c r="D21" s="14"/>
@@ -1815,9 +1523,7 @@
       <c r="AA21" s="25"/>
     </row>
     <row r="22" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="12"/>
       <c r="C22" s="16"/>
       <c r="D22" s="14"/>
@@ -1846,9 +1552,7 @@
       <c r="AA22" s="25"/>
     </row>
     <row r="23" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="12"/>
       <c r="C23" s="16"/>
       <c r="D23" s="14"/>
@@ -1876,10 +1580,8 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="25"/>
     </row>
-    <row r="24" spans="1:27" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="24" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
       <c r="B24" s="12"/>
       <c r="C24" s="16"/>
       <c r="D24" s="14"/>
@@ -1908,9 +1610,7 @@
       <c r="AA24" s="25"/>
     </row>
     <row r="25" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A25" s="4"/>
       <c r="B25" s="12"/>
       <c r="C25" s="16"/>
       <c r="D25" s="14"/>
@@ -1939,9 +1639,7 @@
       <c r="AA25" s="25"/>
     </row>
     <row r="26" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="12"/>
       <c r="C26" s="16"/>
       <c r="D26" s="14"/>
@@ -1970,9 +1668,7 @@
       <c r="AA26" s="25"/>
     </row>
     <row r="27" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="12"/>
       <c r="C27" s="16"/>
       <c r="D27" s="14"/>
@@ -2001,9 +1697,7 @@
       <c r="AA27" s="25"/>
     </row>
     <row r="28" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A28" s="4"/>
       <c r="B28" s="12"/>
       <c r="C28" s="16"/>
       <c r="D28" s="14"/>
@@ -2032,9 +1726,7 @@
       <c r="AA28" s="25"/>
     </row>
     <row r="29" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A29" s="4"/>
       <c r="B29" s="12"/>
       <c r="C29" s="16"/>
       <c r="D29" s="14"/>
@@ -2063,9 +1755,7 @@
       <c r="AA29" s="25"/>
     </row>
     <row r="30" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A30" s="4"/>
       <c r="B30" s="12"/>
       <c r="C30" s="16"/>
       <c r="D30" s="14"/>
@@ -2094,9 +1784,7 @@
       <c r="AA30" s="25"/>
     </row>
     <row r="31" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A31" s="4"/>
       <c r="B31" s="12"/>
       <c r="C31" s="16"/>
       <c r="D31" s="14"/>
@@ -2125,9 +1813,7 @@
       <c r="AA31" s="25"/>
     </row>
     <row r="32" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A32" s="4"/>
       <c r="B32" s="12"/>
       <c r="C32" s="16"/>
       <c r="D32" s="14"/>
@@ -2155,10 +1841,8 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="25"/>
     </row>
-    <row r="33" spans="1:27" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="33" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
       <c r="B33" s="12"/>
       <c r="C33" s="16"/>
       <c r="D33" s="14"/>
@@ -2186,10 +1870,8 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="25"/>
     </row>
-    <row r="34" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>87</v>
-      </c>
+    <row r="34" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
       <c r="B34" s="12"/>
       <c r="C34" s="16"/>
       <c r="D34" s="14"/>
@@ -2217,10 +1899,8 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="25"/>
     </row>
-    <row r="35" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
+    <row r="35" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
       <c r="B35" s="12"/>
       <c r="C35" s="16"/>
       <c r="D35" s="14"/>
@@ -2248,10 +1928,8 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="25"/>
     </row>
-    <row r="36" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>35</v>
-      </c>
+    <row r="36" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
       <c r="B36" s="12"/>
       <c r="C36" s="16"/>
       <c r="D36" s="14"/>
@@ -2278,11 +1956,12 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="25"/>
-    </row>
-    <row r="37" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="AC36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
       <c r="B37" s="12"/>
       <c r="C37" s="16"/>
       <c r="D37" s="14"/>
@@ -2310,10 +1989,8 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="25"/>
     </row>
-    <row r="38" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
+    <row r="38" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
       <c r="B38" s="12"/>
       <c r="C38" s="16"/>
       <c r="D38" s="14"/>
@@ -2341,10 +2018,8 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="25"/>
     </row>
-    <row r="39" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>38</v>
-      </c>
+    <row r="39" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
       <c r="B39" s="12"/>
       <c r="C39" s="16"/>
       <c r="D39" s="14"/>
@@ -2372,10 +2047,8 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="25"/>
     </row>
-    <row r="40" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>39</v>
-      </c>
+    <row r="40" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
       <c r="B40" s="12"/>
       <c r="C40" s="16"/>
       <c r="D40" s="14"/>
@@ -2403,10 +2076,8 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="25"/>
     </row>
-    <row r="41" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>40</v>
-      </c>
+    <row r="41" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
       <c r="B41" s="12"/>
       <c r="C41" s="16"/>
       <c r="D41" s="14"/>
@@ -2434,10 +2105,8 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="25"/>
     </row>
-    <row r="42" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
-      </c>
+    <row r="42" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
       <c r="B42" s="12"/>
       <c r="C42" s="16"/>
       <c r="D42" s="14"/>
@@ -2465,10 +2134,8 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="25"/>
     </row>
-    <row r="43" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>42</v>
-      </c>
+    <row r="43" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
       <c r="B43" s="12"/>
       <c r="C43" s="16"/>
       <c r="D43" s="14"/>
@@ -2496,10 +2163,8 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="25"/>
     </row>
-    <row r="44" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>43</v>
-      </c>
+    <row r="44" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
       <c r="B44" s="12"/>
       <c r="C44" s="16"/>
       <c r="D44" s="14"/>
@@ -2527,10 +2192,8 @@
       <c r="Z44" s="8"/>
       <c r="AA44" s="25"/>
     </row>
-    <row r="45" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
-      </c>
+    <row r="45" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
       <c r="B45" s="12"/>
       <c r="C45" s="16"/>
       <c r="D45" s="14"/>
@@ -2558,10 +2221,8 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="25"/>
     </row>
-    <row r="46" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
-      </c>
+    <row r="46" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
       <c r="B46" s="12"/>
       <c r="C46" s="16"/>
       <c r="D46" s="14"/>
@@ -2589,10 +2250,8 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="25"/>
     </row>
-    <row r="47" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>46</v>
-      </c>
+    <row r="47" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
       <c r="B47" s="12"/>
       <c r="C47" s="16"/>
       <c r="D47" s="14"/>
@@ -2620,10 +2279,8 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="25"/>
     </row>
-    <row r="48" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>47</v>
-      </c>
+    <row r="48" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
       <c r="B48" s="12"/>
       <c r="C48" s="16"/>
       <c r="D48" s="14"/>
@@ -2652,9 +2309,7 @@
       <c r="AA48" s="25"/>
     </row>
     <row r="49" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A49" s="4"/>
       <c r="B49" s="12"/>
       <c r="C49" s="16"/>
       <c r="D49" s="14"/>
@@ -2683,9 +2338,7 @@
       <c r="AA49" s="25"/>
     </row>
     <row r="50" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A50" s="4"/>
       <c r="B50" s="12"/>
       <c r="C50" s="16"/>
       <c r="D50" s="14"/>
@@ -2714,9 +2367,7 @@
       <c r="AA50" s="25"/>
     </row>
     <row r="51" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A51" s="4"/>
       <c r="B51" s="12"/>
       <c r="C51" s="16"/>
       <c r="D51" s="14"/>
@@ -2745,9 +2396,7 @@
       <c r="AA51" s="25"/>
     </row>
     <row r="52" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A52" s="4"/>
       <c r="B52" s="12"/>
       <c r="C52" s="16"/>
       <c r="D52" s="14"/>
@@ -2776,9 +2425,7 @@
       <c r="AA52" s="25"/>
     </row>
     <row r="53" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A53" s="4"/>
       <c r="B53" s="12"/>
       <c r="C53" s="16"/>
       <c r="D53" s="14"/>
@@ -2807,9 +2454,7 @@
       <c r="AA53" s="25"/>
     </row>
     <row r="54" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A54" s="4"/>
       <c r="B54" s="12"/>
       <c r="C54" s="16"/>
       <c r="D54" s="14"/>
@@ -2838,9 +2483,7 @@
       <c r="AA54" s="25"/>
     </row>
     <row r="55" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A55" s="4"/>
       <c r="B55" s="12"/>
       <c r="C55" s="16"/>
       <c r="D55" s="14"/>
@@ -2869,9 +2512,7 @@
       <c r="AA55" s="25"/>
     </row>
     <row r="56" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A56" s="4"/>
       <c r="B56" s="12"/>
       <c r="C56" s="16"/>
       <c r="D56" s="14"/>
@@ -2900,9 +2541,7 @@
       <c r="AA56" s="25"/>
     </row>
     <row r="57" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A57" s="4"/>
       <c r="B57" s="12"/>
       <c r="C57" s="16"/>
       <c r="D57" s="14"/>
@@ -2931,9 +2570,7 @@
       <c r="AA57" s="25"/>
     </row>
     <row r="58" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A58" s="4"/>
       <c r="B58" s="12"/>
       <c r="C58" s="16"/>
       <c r="D58" s="14"/>
@@ -2962,9 +2599,7 @@
       <c r="AA58" s="25"/>
     </row>
     <row r="59" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A59" s="4"/>
       <c r="B59" s="12"/>
       <c r="C59" s="16"/>
       <c r="D59" s="14"/>
@@ -2993,9 +2628,7 @@
       <c r="AA59" s="25"/>
     </row>
     <row r="60" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A60" s="4"/>
       <c r="B60" s="12"/>
       <c r="C60" s="16"/>
       <c r="D60" s="14"/>
@@ -3024,9 +2657,7 @@
       <c r="AA60" s="25"/>
     </row>
     <row r="61" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="A61" s="4"/>
       <c r="B61" s="12"/>
       <c r="C61" s="16"/>
       <c r="D61" s="14"/>
@@ -3055,9 +2686,7 @@
       <c r="AA61" s="25"/>
     </row>
     <row r="62" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="12"/>
       <c r="C62" s="16"/>
       <c r="D62" s="14"/>
@@ -3086,9 +2715,7 @@
       <c r="AA62" s="25"/>
     </row>
     <row r="63" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A63" s="4"/>
       <c r="B63" s="12"/>
       <c r="C63" s="16"/>
       <c r="D63" s="14"/>
@@ -3117,9 +2744,7 @@
       <c r="AA63" s="25"/>
     </row>
     <row r="64" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A64" s="4"/>
       <c r="B64" s="12"/>
       <c r="C64" s="16"/>
       <c r="D64" s="14"/>
@@ -3148,9 +2773,7 @@
       <c r="AA64" s="25"/>
     </row>
     <row r="65" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="A65" s="4"/>
       <c r="B65" s="12"/>
       <c r="C65" s="16"/>
       <c r="D65" s="14"/>
@@ -3179,9 +2802,7 @@
       <c r="AA65" s="25"/>
     </row>
     <row r="66" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A66" s="4"/>
       <c r="B66" s="12"/>
       <c r="C66" s="16"/>
       <c r="D66" s="14"/>
@@ -3210,9 +2831,7 @@
       <c r="AA66" s="25"/>
     </row>
     <row r="67" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A67" s="4"/>
       <c r="B67" s="12"/>
       <c r="C67" s="16"/>
       <c r="D67" s="14"/>
@@ -3241,9 +2860,7 @@
       <c r="AA67" s="25"/>
     </row>
     <row r="68" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A68" s="4"/>
       <c r="B68" s="12"/>
       <c r="C68" s="16"/>
       <c r="D68" s="14"/>
@@ -3272,9 +2889,7 @@
       <c r="AA68" s="25"/>
     </row>
     <row r="69" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="A69" s="4"/>
       <c r="B69" s="12"/>
       <c r="C69" s="16"/>
       <c r="D69" s="14"/>
@@ -3303,9 +2918,7 @@
       <c r="AA69" s="25"/>
     </row>
     <row r="70" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="A70" s="4"/>
       <c r="B70" s="12"/>
       <c r="C70" s="16"/>
       <c r="D70" s="14"/>
@@ -3334,9 +2947,7 @@
       <c r="AA70" s="25"/>
     </row>
     <row r="71" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A71" s="4"/>
       <c r="B71" s="12"/>
       <c r="C71" s="16"/>
       <c r="D71" s="14"/>
@@ -3365,9 +2976,7 @@
       <c r="AA71" s="25"/>
     </row>
     <row r="72" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A72" s="4"/>
       <c r="B72" s="12"/>
       <c r="C72" s="16"/>
       <c r="D72" s="14"/>
@@ -3396,9 +3005,7 @@
       <c r="AA72" s="25"/>
     </row>
     <row r="73" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A73" s="4"/>
       <c r="B73" s="12"/>
       <c r="C73" s="16"/>
       <c r="D73" s="14"/>
@@ -3427,9 +3034,7 @@
       <c r="AA73" s="25"/>
     </row>
     <row r="74" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A74" s="4"/>
       <c r="B74" s="12"/>
       <c r="C74" s="16"/>
       <c r="D74" s="14"/>
@@ -3458,9 +3063,7 @@
       <c r="AA74" s="25"/>
     </row>
     <row r="75" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A75" s="4"/>
       <c r="B75" s="12"/>
       <c r="C75" s="16"/>
       <c r="D75" s="14"/>
@@ -3489,9 +3092,7 @@
       <c r="AA75" s="25"/>
     </row>
     <row r="76" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="A76" s="4"/>
       <c r="B76" s="12"/>
       <c r="C76" s="17"/>
       <c r="D76" s="14"/>
@@ -3521,31 +3122,21 @@
     </row>
     <row r="79" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="7">
+    <mergeCell ref="Z2:Z5"/>
     <mergeCell ref="AA2:AA5"/>
     <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="V2:W3"/>
     <mergeCell ref="X2:Y3"/>
-    <mergeCell ref="D2:E3"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="Z2:Z5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/Svod.xlsx
+++ b/Svod.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Ясли</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Е.В.Кобзева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расход продуктов по МДОУ "Детский сад № 63" с  по </t>
-  </si>
-  <si>
-    <t>н</t>
   </si>
 </sst>
 </file>
@@ -441,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -488,6 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -505,9 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -532,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,12 +832,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC79"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2:E3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -854,35 +849,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="10" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
@@ -918,10 +911,10 @@
         <v>6</v>
       </c>
       <c r="Y2" s="38"/>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -951,8 +944,8 @@
       <c r="W3" s="29"/>
       <c r="X3" s="39"/>
       <c r="Y3" s="40"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="34"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="35"/>
     </row>
     <row r="4" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44"/>
@@ -1024,8 +1017,8 @@
       <c r="Y4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="34"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="35"/>
     </row>
     <row r="5" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1055,8 +1048,8 @@
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
       <c r="Y5" s="22"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="35"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
@@ -1841,7 +1834,7 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="25"/>
     </row>
-    <row r="33" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="12"/>
       <c r="C33" s="16"/>
@@ -1870,7 +1863,7 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="25"/>
     </row>
-    <row r="34" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="12"/>
       <c r="C34" s="16"/>
@@ -1899,7 +1892,7 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="25"/>
     </row>
-    <row r="35" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="12"/>
       <c r="C35" s="16"/>
@@ -1928,7 +1921,7 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="25"/>
     </row>
-    <row r="36" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="12"/>
       <c r="C36" s="16"/>
@@ -1956,11 +1949,8 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="25"/>
-      <c r="AC36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="12"/>
       <c r="C37" s="16"/>
@@ -1989,7 +1979,7 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="25"/>
     </row>
-    <row r="38" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="12"/>
       <c r="C38" s="16"/>
@@ -2018,7 +2008,7 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="25"/>
     </row>
-    <row r="39" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="12"/>
       <c r="C39" s="16"/>
@@ -2047,7 +2037,7 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="25"/>
     </row>
-    <row r="40" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="12"/>
       <c r="C40" s="16"/>
@@ -2076,7 +2066,7 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="25"/>
     </row>
-    <row r="41" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="12"/>
       <c r="C41" s="16"/>
@@ -2105,7 +2095,7 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="25"/>
     </row>
-    <row r="42" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="12"/>
       <c r="C42" s="16"/>
@@ -2134,7 +2124,7 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="25"/>
     </row>
-    <row r="43" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="12"/>
       <c r="C43" s="16"/>
@@ -2163,7 +2153,7 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="25"/>
     </row>
-    <row r="44" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="12"/>
       <c r="C44" s="16"/>
@@ -2192,7 +2182,7 @@
       <c r="Z44" s="8"/>
       <c r="AA44" s="25"/>
     </row>
-    <row r="45" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="12"/>
       <c r="C45" s="16"/>
@@ -2221,7 +2211,7 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="25"/>
     </row>
-    <row r="46" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="12"/>
       <c r="C46" s="16"/>
@@ -2250,7 +2240,7 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="25"/>
     </row>
-    <row r="47" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="12"/>
       <c r="C47" s="16"/>
@@ -2279,7 +2269,7 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="25"/>
     </row>
-    <row r="48" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="12"/>
       <c r="C48" s="16"/>
@@ -3129,14 +3119,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="Z2:Z5"/>
     <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="A1:AA1"/>
     <mergeCell ref="X2:Y3"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" fitToHeight="2" orientation="landscape" r:id="rId1"/>
